--- a/raw_data/interventionData.xlsx
+++ b/raw_data/interventionData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28410"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monica/Documents/GitRepos/Anopheles-model/raw_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="144" windowWidth="17832" windowHeight="9264"/>
+    <workbookView xWindow="1960" yWindow="600" windowWidth="24160" windowHeight="14280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +19,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>Study</t>
   </si>
@@ -36,7 +49,49 @@
     <t>Parameter</t>
   </si>
   <si>
-    <t>value</t>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>LLINs</t>
+  </si>
+  <si>
+    <t>alphai_initial_effect</t>
+  </si>
+  <si>
+    <t>alphai_halflife</t>
+  </si>
+  <si>
+    <t>alphai_duration</t>
+  </si>
+  <si>
+    <t>PBi_initial_effect</t>
+  </si>
+  <si>
+    <t>PBi_halflife</t>
+  </si>
+  <si>
+    <t>PBi_duration</t>
+  </si>
+  <si>
+    <t>PCi_initial_effect</t>
+  </si>
+  <si>
+    <t>PCi_halflife</t>
+  </si>
+  <si>
+    <t>PCi_duration</t>
+  </si>
+  <si>
+    <t>PDi_initial_effect</t>
+  </si>
+  <si>
+    <t>PDi_duration</t>
+  </si>
+  <si>
+    <t>PDi_halflife</t>
+  </si>
+  <si>
+    <t>Permethrin_IRS</t>
   </si>
 </sst>
 </file>
@@ -138,12 +193,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -173,12 +228,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -382,15 +437,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D11" sqref="D11:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,6 +471,171 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -423,7 +651,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -435,7 +663,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data/interventionData.xlsx
+++ b/raw_data/interventionData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="600" windowWidth="24160" windowHeight="14280"/>
+    <workbookView xWindow="3260" yWindow="600" windowWidth="24160" windowHeight="14280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
   <si>
     <t>Study</t>
   </si>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t>Permethrin_IRS</t>
+  </si>
+  <si>
+    <t>DDT_IRS</t>
+  </si>
+  <si>
+    <t>Bendiocarb_IRS</t>
+  </si>
+  <si>
+    <t>House_screening</t>
+  </si>
+  <si>
+    <t>alphai_coeff</t>
   </si>
 </sst>
 </file>
@@ -437,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D16"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -636,6 +648,116 @@
       </c>
       <c r="F16">
         <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26">
+        <v>0.41</v>
       </c>
     </row>
   </sheetData>

--- a/raw_data/interventionData.xlsx
+++ b/raw_data/interventionData.xlsx
@@ -452,7 +452,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -757,7 +757,7 @@
         <v>23</v>
       </c>
       <c r="F26">
-        <v>0.41</v>
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>
